--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F919FD-0E0C-4B0A-A6D0-F243E4DF653B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BEB137-C77E-44E4-A568-1067525237BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6012" yWindow="2952" windowWidth="24468" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="TrailSetting" sheetId="7" r:id="rId4"/>
     <sheet name="LanguageSetting" sheetId="3" r:id="rId5"/>
     <sheet name="GameSetting" sheetId="2" r:id="rId6"/>
+    <sheet name="IconSetting" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -51,6 +52,35 @@
 2000：装备火力起始ID
 3000：装备导弹起始ID
 4000：装备尾翼起始ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9ACCF8B2-E212-4CBD-B0C8-F8023CD47CD0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1:Body 机身
+2:SecondaryGun 副武器（机枪）
+3:Missile（导弹）
+4:Trail（拖尾）</t>
         </r>
       </text>
     </comment>
@@ -103,6 +133,36 @@
           </rPr>
           <t xml:space="preserve">
 1：通过第N关，填写关卡值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{1C3986B6-1DD0-4044-ABD9-4BDAE5D1E243}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1为速度（频率）
+2为伤害
+3为防御
+4为金币收益
+5为金币价值</t>
         </r>
       </text>
     </comment>
@@ -197,6 +257,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{540B4443-5480-4314-B5F8-93E016D6A4CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1为速度（频率）
+2为伤害
+3为防御
+4为金币收益
+5为金币价值</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -285,6 +375,36 @@
           </rPr>
           <t xml:space="preserve">
 1：通过第N关，填写关卡值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{BF0E59D3-2B0A-457B-B572-B03F56F78E25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1为速度（频率）
+2为伤害
+3为防御
+4为金币收益
+5为金币价值</t>
         </r>
       </text>
     </comment>
@@ -379,21 +499,47 @@
         </r>
       </text>
     </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C4B0E261-EB9F-43EB-A6F8-4FB7B1B7F5D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1为速度（频率）
+2为伤害
+3为防御
+4为金币收益
+5为金币价值</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="133">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -414,22 +560,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>自己</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>友军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>野怪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>语言表id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -458,18 +588,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>阵营:s%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已占领:s%/s%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支数:s%/s%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>能量最大值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -531,10 +649,6 @@
   </si>
   <si>
     <t>PowerMax</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>细胞数:{s%}/s%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -562,10 +676,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>频率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -646,10 +756,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EquipmentType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>装备类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -658,14 +764,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>蓝色机身</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色机身</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>机枪散射</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -687,6 +785,282 @@
   </si>
   <si>
     <t>红色尾翼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelMax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大关卡值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleCostPower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次游戏消耗的能量点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度:{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥特曼机身，奥特曼一般的感觉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就是地球超人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信不信俺老孙教你做人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是宇宙最强机甲，钛合金X元素机身</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机身5未知</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>谜团、黑洞、主宰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtlasName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标所在图集名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组5拷贝2@2x-1001</t>
+  </si>
+  <si>
+    <t>机枪111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪333</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>响尾蛇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎蛇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreparePage</t>
+  </si>
+  <si>
+    <t>PreparePage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组5拷贝2@2x-1011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹1</t>
+  </si>
+  <si>
+    <t>导弹2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性加成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每种部件属性加成均为2种，用+分割</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyPlus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+5</t>
+  </si>
+  <si>
+    <t>4+5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖尾1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖尾2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv:{0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害:{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御:{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币价值:{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币收益:{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreparePage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreparePage|防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinPrice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinGain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度（速率）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreparePage|伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreparePage|速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreparePage|金币价值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreparePage|金币收益</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]为图集名，[1]为精灵名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +1071,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,22 +1143,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -804,6 +1164,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -819,7 +1186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -860,28 +1227,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -893,9 +1246,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,27 +1266,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1463,253 +1832,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="4" customWidth="1"/>
-    <col min="4" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="H1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="H4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="I4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>1001</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1008</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="17">
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
         <v>0.8</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>0.8</v>
       </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6">
-        <v>999</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16">
+        <v>99</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
         <v>1011</v>
       </c>
-      <c r="B7" s="9">
-        <v>1009</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
-        <v>999</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="B7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1</v>
+      </c>
+      <c r="J7" s="16">
+        <v>1</v>
+      </c>
+      <c r="K7" s="16">
+        <v>99</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1</v>
+      </c>
+      <c r="M7" s="16">
+        <v>12</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+  <conditionalFormatting sqref="A3:A5">
+    <cfRule type="duplicateValues" dxfId="16" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+  <conditionalFormatting sqref="A2:J2">
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:L2">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+  <conditionalFormatting sqref="K2:P2">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1719,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026B52-CF55-48DC-8D86-B26C46E34A0E}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1739,251 +2192,483 @@
     <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="H1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="I4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="M4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="B5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2001</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1010</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>19</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>2011</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>1011</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="17">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
         <v>1.2</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="5">
         <v>1.2</v>
       </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>6</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1012</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>2031</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1013</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>19</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>12</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>2041</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1014</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>19</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>24</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:P2">
     <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:L2">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18CF833-C8E3-4FD3-833A-20A74CDB8951}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1999,240 +2684,463 @@
     <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="H1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="I4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="M4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3001</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
         <v>49</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>3001</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1012</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>11</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>3011</v>
       </c>
-      <c r="B7" s="9">
-        <v>1013</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="17">
+      <c r="B7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>49</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>13</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>3021</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1022</v>
+      </c>
+      <c r="C8" s="16">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>7</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>49</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>21</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>3031</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1023</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16">
         <v>1.2</v>
       </c>
-      <c r="E7" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="E9" s="16">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>49</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>22</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>3041</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1024</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>49</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  <conditionalFormatting sqref="A3:A5">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  <conditionalFormatting sqref="A2:M2">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:L2">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="N2:P2">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2241,10 +3149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1034E8-97B7-4AE6-85D3-98B9692FAA0B}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2260,240 +3168,319 @@
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="H1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="I4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="M4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="B5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4001</v>
       </c>
-      <c r="B6" s="9">
-        <v>1014</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="B6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
         <v>0.8</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="12">
         <v>0.8</v>
       </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>199</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2222</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>4011</v>
       </c>
-      <c r="B7" s="9">
-        <v>1015</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="B7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
         <v>0.8</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="12">
         <v>0.8</v>
       </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>199</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>3333</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  <conditionalFormatting sqref="A3:A5">
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:L2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A2:M2">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:P2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2502,183 +3489,251 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1001</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
+      <c r="A7" s="13">
+        <v>100</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1002</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
+      <c r="A8" s="13">
+        <v>101</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1003</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
+      <c r="A9" s="13">
+        <v>102</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1004</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="A10" s="13">
+        <v>103</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1005</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+      <c r="A11" s="13">
+        <v>104</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1006</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
+      <c r="A12" s="13">
+        <v>105</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1007</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
+      <c r="A13" s="13">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>IF(B14="","",A13+1)</f>
-        <v>1008</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
+      <c r="A14" s="13">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" ref="A15:A21" si="0">IF(B15="","",A14+1)</f>
-        <v>1009</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="13">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>1020</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>1021</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>1022</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>1023</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>1024</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>1030</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>1031</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>1010</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>1011</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>1012</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>1013</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>1014</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>1015</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>2004</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A2:C2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2686,10 +3741,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2701,133 +3756,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
+      <c r="C1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>13</v>
+      <c r="A3" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="10"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>4000</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>9999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2838,4 +3915,132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16613BD9-1BB8-4B3A-9C31-59A58E5C044A}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="Key@" xr:uid="{6323F88F-B53A-4797-A10F-F900AC9F54E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BEB137-C77E-44E4-A568-1067525237BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C6A0A-7988-4137-9942-A87475DF966B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6012" yWindow="2952" windowWidth="24468" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2676" yWindow="3948" windowWidth="26232" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -1834,11 +1834,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="16">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N7" s="16" t="s">
         <v>92</v>
@@ -3152,7 +3152,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3491,8 +3491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3718,7 +3718,7 @@
         <v>2003</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3726,7 +3726,7 @@
         <v>2004</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3744,7 +3744,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3857,7 +3857,7 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -3868,7 +3868,7 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -3879,7 +3879,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>9999</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -3921,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16613BD9-1BB8-4B3A-9C31-59A58E5C044A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3984,7 +3984,7 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
         <v>126</v>
@@ -4008,7 +4008,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -4042,5 +4042,6 @@
     <hyperlink ref="A1" r:id="rId1" display="Key@" xr:uid="{6323F88F-B53A-4797-A10F-F900AC9F54E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C6A0A-7988-4137-9942-A87475DF966B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C71E0-6615-430E-A33F-68AC6B48F717}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2676" yWindow="3948" windowWidth="26232" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{1C3986B6-1DD0-4044-ABD9-4BDAE5D1E243}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1C3986B6-1DD0-4044-ABD9-4BDAE5D1E243}">
       <text>
         <r>
           <rPr>
@@ -163,6 +163,34 @@
 3为防御
 4为金币收益
 5为金币价值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{F96BD10F-9D3C-41E2-9149-B5D467F120F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+BulletNormal
+BulletMissile
+BulletBasicTrace</t>
         </r>
       </text>
     </comment>
@@ -205,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{C7412016-C203-469A-A028-49BFF0D41358}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{C7412016-C203-469A-A028-49BFF0D41358}">
       <text>
         <r>
           <rPr>
@@ -231,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C5EFFE3B-82A3-4DC3-9134-9332A69564A2}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{C5EFFE3B-82A3-4DC3-9134-9332A69564A2}">
       <text>
         <r>
           <rPr>
@@ -257,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{540B4443-5480-4314-B5F8-93E016D6A4CB}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{540B4443-5480-4314-B5F8-93E016D6A4CB}">
       <text>
         <r>
           <rPr>
@@ -284,6 +312,34 @@
 3为防御
 4为金币收益
 5为金币价值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{7B10D316-1774-4D3A-84AE-C9F5C887653E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+BulletNormal
+BulletMissile
+BulletBasicTrace</t>
         </r>
       </text>
     </comment>
@@ -326,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{46CDAF05-3EB8-4EF7-B12F-DF91D4A05362}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{46CDAF05-3EB8-4EF7-B12F-DF91D4A05362}">
       <text>
         <r>
           <rPr>
@@ -352,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{E52B8337-FCD9-42D3-A368-AF491E15FFEE}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{E52B8337-FCD9-42D3-A368-AF491E15FFEE}">
       <text>
         <r>
           <rPr>
@@ -378,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{BF0E59D3-2B0A-457B-B572-B03F56F78E25}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{BF0E59D3-2B0A-457B-B572-B03F56F78E25}">
       <text>
         <r>
           <rPr>
@@ -405,6 +461,34 @@
 3为防御
 4为金币收益
 5为金币价值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C835D520-8FA0-47E8-9094-2BBE538357B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+BulletNormal
+BulletMissile
+BulletBasicTrace</t>
         </r>
       </text>
     </comment>
@@ -529,12 +613,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{E08E5B62-A112-411E-B3BC-764B0DCB95FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+BulletNormal
+BulletMissile
+BulletBasicTrace</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="144">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -700,10 +812,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CoinMultiply</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>装备编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1062,6 +1170,49 @@
   <si>
     <t>[0]为图集名，[1]为精灵名</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletPrefabName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹使用的预制件名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletNormal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletBasicTrace</t>
+  </si>
+  <si>
+    <t>BulletMissile</t>
+  </si>
+  <si>
+    <t>BulletMissile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletLightBlue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletRed</t>
+  </si>
+  <si>
+    <t>bulletSmallBrown</t>
+  </si>
+  <si>
+    <t>bulletMissile1</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,6 +1322,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1228,13 +1387,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1288,12 +1448,104 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1832,13 +2084,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1851,25 +2103,26 @@
     <col min="6" max="6" width="8.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="4"/>
+    <col min="9" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29" style="4" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>102</v>
-      </c>
       <c r="C1" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>31</v>
@@ -1884,34 +2137,37 @@
         <v>38</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>47</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>76</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1949,19 +2205,22 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1976,18 +2235,19 @@
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="18"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O3" s="18"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>35</v>
@@ -2005,36 +2265,39 @@
         <v>40</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>49</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="N4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -2048,17 +2311,18 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O5" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>1001</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
@@ -2082,33 +2346,36 @@
         <v>1</v>
       </c>
       <c r="J6" s="16">
+        <v>99</v>
+      </c>
+      <c r="K6" s="16">
         <v>1</v>
       </c>
-      <c r="K6" s="16">
-        <v>99</v>
-      </c>
       <c r="L6" s="16">
-        <v>1</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>1011</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
@@ -2132,50 +2399,59 @@
         <v>1</v>
       </c>
       <c r="J7" s="16">
+        <v>99</v>
+      </c>
+      <c r="K7" s="16">
         <v>1</v>
       </c>
-      <c r="K7" s="16">
-        <v>99</v>
-      </c>
       <c r="L7" s="16">
-        <v>1</v>
-      </c>
-      <c r="M7" s="16">
         <v>2</v>
       </c>
-      <c r="N7" s="16" t="s">
-        <v>92</v>
+      <c r="M7" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>109</v>
+        <v>141</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A3:A5">
-    <cfRule type="duplicateValues" dxfId="16" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:J2">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+  <conditionalFormatting sqref="A2:I2 P2">
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:P2">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+  <conditionalFormatting sqref="J2:O2">
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="N7" r:id="rId1" xr:uid="{1A678028-1066-4B0D-989C-32DDC872CB8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026B52-CF55-48DC-8D86-B26C46E34A0E}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2187,17 +2463,18 @@
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -2205,7 +2482,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>31</v>
@@ -2220,34 +2497,37 @@
         <v>38</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>47</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>76</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2285,19 +2565,22 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -2312,18 +2595,19 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="18"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="O3" s="18"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="C4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>35</v>
@@ -2341,36 +2625,39 @@
         <v>40</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>49</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="O4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2384,12 +2671,13 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="O5" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2001</v>
       </c>
@@ -2418,28 +2706,31 @@
         <v>1</v>
       </c>
       <c r="J6" s="5">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="5">
-        <v>19</v>
-      </c>
       <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2011</v>
       </c>
@@ -2468,28 +2759,31 @@
         <v>1</v>
       </c>
       <c r="J7" s="5">
+        <v>19</v>
+      </c>
+      <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="K7" s="5">
-        <v>19</v>
-      </c>
       <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2021</v>
       </c>
@@ -2518,28 +2812,31 @@
         <v>1</v>
       </c>
       <c r="J8" s="5">
+        <v>19</v>
+      </c>
+      <c r="K8" s="5">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
-        <v>19</v>
-      </c>
       <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5">
         <v>8</v>
       </c>
+      <c r="M8" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="N8" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2031</v>
       </c>
@@ -2568,28 +2865,31 @@
         <v>1</v>
       </c>
       <c r="J9" s="5">
+        <v>19</v>
+      </c>
+      <c r="K9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="5">
-        <v>19</v>
-      </c>
       <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
         <v>12</v>
       </c>
+      <c r="M9" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="N9" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2041</v>
       </c>
@@ -2618,43 +2918,52 @@
         <v>1</v>
       </c>
       <c r="J10" s="5">
+        <v>19</v>
+      </c>
+      <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="5">
-        <v>19</v>
-      </c>
       <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5">
         <v>24</v>
       </c>
+      <c r="M10" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="N10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:P2">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:O2">
+    <cfRule type="duplicateValues" dxfId="15" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2664,10 +2973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18CF833-C8E3-4FD3-833A-20A74CDB8951}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2679,25 +2988,26 @@
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>102</v>
-      </c>
       <c r="C1" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>31</v>
@@ -2712,34 +3022,37 @@
         <v>38</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>47</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>76</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2777,19 +3090,22 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -2804,18 +3120,19 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="18"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="O3" s="18"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="C4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>35</v>
@@ -2833,36 +3150,39 @@
         <v>40</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>49</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="O4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2874,19 +3194,20 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="O5" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3001</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="14">
         <v>3</v>
@@ -2910,33 +3231,36 @@
         <v>1</v>
       </c>
       <c r="J6" s="5">
+        <v>49</v>
+      </c>
+      <c r="K6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="5">
-        <v>49</v>
-      </c>
       <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3011</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="14">
         <v>3</v>
@@ -2960,28 +3284,31 @@
         <v>1</v>
       </c>
       <c r="J7" s="5">
+        <v>49</v>
+      </c>
+      <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="K7" s="5">
-        <v>49</v>
-      </c>
       <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>3021</v>
       </c>
@@ -3010,28 +3337,31 @@
         <v>1</v>
       </c>
       <c r="J8" s="5">
+        <v>49</v>
+      </c>
+      <c r="K8" s="5">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
-        <v>49</v>
-      </c>
       <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5">
         <v>21</v>
       </c>
+      <c r="M8" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="N8" s="16" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>3031</v>
       </c>
@@ -3060,28 +3390,31 @@
         <v>1</v>
       </c>
       <c r="J9" s="5">
+        <v>49</v>
+      </c>
+      <c r="K9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="5">
-        <v>49</v>
-      </c>
       <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
         <v>22</v>
       </c>
+      <c r="M9" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="N9" s="16" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3041</v>
       </c>
@@ -3110,37 +3443,46 @@
         <v>1</v>
       </c>
       <c r="J10" s="5">
+        <v>49</v>
+      </c>
+      <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="5">
-        <v>49</v>
-      </c>
       <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5">
         <v>32</v>
       </c>
+      <c r="M10" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="N10" s="16" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A3:A5">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M2">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  <conditionalFormatting sqref="M2:O2">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:P2">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:L2">
+    <cfRule type="duplicateValues" dxfId="8" priority="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3149,10 +3491,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1034E8-97B7-4AE6-85D3-98B9692FAA0B}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3171,17 +3513,19 @@
     <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>31</v>
@@ -3196,34 +3540,40 @@
         <v>38</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="L1" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="P1" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3264,16 +3614,22 @@
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -3290,16 +3646,18 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="18"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="C4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>35</v>
@@ -3317,36 +3675,42 @@
         <v>40</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="L4" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="P4" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -3362,15 +3726,17 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4001</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="14">
         <v>4</v>
@@ -3403,24 +3769,26 @@
         <v>1</v>
       </c>
       <c r="M6" s="5">
-        <v>2222</v>
+        <v>5</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4011</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="14">
         <v>4</v>
@@ -3453,33 +3821,41 @@
         <v>1</v>
       </c>
       <c r="M7" s="5">
-        <v>3333</v>
+        <v>122</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>112</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A5">
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:M2">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A5">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  <conditionalFormatting sqref="N2:P2">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M2">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:P2">
+  <conditionalFormatting sqref="R2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3517,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -3542,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3550,7 +3926,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3558,7 +3934,7 @@
         <v>101</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3566,7 +3942,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3574,7 +3950,7 @@
         <v>103</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,7 +3958,7 @@
         <v>104</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,7 +3966,7 @@
         <v>105</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3598,7 +3974,7 @@
         <v>1010</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3606,7 +3982,7 @@
         <v>1011</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3614,7 +3990,7 @@
         <v>1012</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3622,7 +3998,7 @@
         <v>1013</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3630,7 +4006,7 @@
         <v>1014</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3638,7 +4014,7 @@
         <v>1020</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3646,7 +4022,7 @@
         <v>1021</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3654,7 +4030,7 @@
         <v>1022</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3662,7 +4038,7 @@
         <v>1023</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3670,7 +4046,7 @@
         <v>1024</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3678,7 +4054,7 @@
         <v>1030</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3686,7 +4062,7 @@
         <v>1031</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3694,7 +4070,7 @@
         <v>2000</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3702,7 +4078,7 @@
         <v>2001</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3710,7 +4086,7 @@
         <v>2002</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3718,7 +4094,7 @@
         <v>2003</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3726,7 +4102,7 @@
         <v>2004</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3887,24 +4263,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>9999</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3952,7 +4328,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
@@ -3972,10 +4348,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
         <v>131</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
       </c>
       <c r="D5" s="9"/>
     </row>
@@ -3984,10 +4360,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -3996,7 +4372,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -4008,7 +4384,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -4016,10 +4392,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -4027,10 +4403,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>

--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C71E0-6615-430E-A33F-68AC6B48F717}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CF3E33-6EB2-4D3F-8D32-2C11B7A406BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="564" windowWidth="32796" windowHeight="15576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -37,21 +37,16 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1000：装备机身起始ID
-2000：装备火力起始ID
-3000：装备导弹起始ID
-4000：装备尾翼起始ID</t>
+          <t>作者
+10000开头的为蓝色系列装备
+20000开头的为红色系列装备
+10XXX为蓝色机身
+11XXX为蓝色机枪
+12XXX为蓝色导弹
+20XXX为红色机身
+21XXX为红色机枪
+22XXX为红色导弹
+注意每小类装备之间留足空位</t>
         </r>
       </text>
     </comment>
@@ -136,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1C3986B6-1DD0-4044-ABD9-4BDAE5D1E243}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{1C3986B6-1DD0-4044-ABD9-4BDAE5D1E243}">
       <text>
         <r>
           <rPr>
@@ -166,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{F96BD10F-9D3C-41E2-9149-B5D467F120F9}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{F96BD10F-9D3C-41E2-9149-B5D467F120F9}">
       <text>
         <r>
           <rPr>
@@ -204,35 +199,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9BE32313-2669-4EE2-8F9E-D049A4F7529D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1000：装备机身起始ID
-2000：装备火力起始ID
-3000：装备导弹起始ID
-4000：装备尾翼起始ID</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="K1" authorId="0" shapeId="0" xr:uid="{C7412016-C203-469A-A028-49BFF0D41358}">
       <text>
         <r>
@@ -353,35 +319,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1DA3ABD8-5C4E-41CD-BF9F-BEF5EAD4DC48}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1000：装备机身起始ID
-2000：装备火力起始ID
-3000：装备导弹起始ID
-4000：装备尾翼起始ID</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="K1" authorId="0" shapeId="0" xr:uid="{46CDAF05-3EB8-4EF7-B12F-DF91D4A05362}">
       <text>
         <r>
@@ -502,35 +439,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9A30C6E7-8E5C-4F4F-9794-CA8CD8E72D57}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1000：装备机身起始ID
-2000：装备火力起始ID
-3000：装备导弹起始ID
-4000：装备尾翼起始ID</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="L1" authorId="0" shapeId="0" xr:uid="{769CE199-F9BE-4B83-AAB1-72CE7AA9DA66}">
       <text>
         <r>
@@ -646,7 +554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="142">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -964,9 +872,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>组5拷贝2@2x-1001</t>
-  </si>
-  <si>
     <t>机枪111</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1012,34 +917,6 @@
   </si>
   <si>
     <t>PreparePage</t>
-  </si>
-  <si>
-    <t>PreparePage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组5拷贝2@2x-1011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机枪1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机枪2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机枪3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机枪4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机枪5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
@@ -1054,25 +931,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>导弹1</t>
-  </si>
-  <si>
-    <t>导弹2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>属性加成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1213,6 +1071,49 @@
   </si>
   <si>
     <t>bulletMissile1</t>
+  </si>
+  <si>
+    <t>PlaneFactory</t>
+  </si>
+  <si>
+    <t>PlaneFactory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白杨导弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>核弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制件名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalPos</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制件的坐标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0.19|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1222,7 +1123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,14 +1223,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1387,14 +1280,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1448,18 +1340,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -2084,13 +1972,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2108,21 +1996,22 @@
     <col min="12" max="12" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29" style="4" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="4"/>
+    <col min="15" max="16" width="19.88671875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29" style="4" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>31</v>
@@ -2137,7 +2026,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>46</v>
@@ -2158,16 +2047,22 @@
         <v>76</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2205,22 +2100,28 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2235,11 +2136,13 @@
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="18"/>
+      <c r="O3" s="16"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
@@ -2282,17 +2185,23 @@
       <c r="N4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>107</v>
+      <c r="O4" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>55</v>
       </c>
@@ -2311,15 +2220,16 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O5" s="16"/>
+      <c r="Q5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
-        <v>1001</v>
+        <v>10001</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>66</v>
@@ -2355,24 +2265,26 @@
         <v>0</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>140</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N6" s="16">
+        <v>10001</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
       <c r="Q6" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
-        <v>1011</v>
+        <v>20001</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>67</v>
@@ -2408,19 +2320,23 @@
         <v>2</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>108</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N7" s="16">
+        <v>20001</v>
+      </c>
+      <c r="O7" s="16"/>
       <c r="P7" s="16" t="s">
         <v>141</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>136</v>
+        <v>95</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2428,21 +2344,18 @@
   <conditionalFormatting sqref="A3:A5">
     <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I2 P2">
+  <conditionalFormatting sqref="R2 A2:I2">
     <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:O2">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+  <conditionalFormatting sqref="S2">
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+  <conditionalFormatting sqref="J2:Q2">
+    <cfRule type="duplicateValues" dxfId="20" priority="32"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="N7" r:id="rId1" xr:uid="{1A678028-1066-4B0D-989C-32DDC872CB8C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2451,12 +2364,12 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
@@ -2482,7 +2395,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>31</v>
@@ -2497,7 +2410,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>46</v>
@@ -2518,13 +2431,13 @@
         <v>76</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2565,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
@@ -2643,13 +2556,13 @@
         <v>78</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
@@ -2672,14 +2585,14 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="18" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>2001</v>
+        <v>11001</v>
       </c>
       <c r="B6" s="8">
         <v>1010</v>
@@ -2706,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="5">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="K6" s="5">
         <v>1</v>
@@ -2715,24 +2628,24 @@
         <v>3</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>94</v>
+        <v>131</v>
+      </c>
+      <c r="N6" s="14">
+        <v>11001</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>2011</v>
+        <v>21001</v>
       </c>
       <c r="B7" s="8">
         <v>1011</v>
@@ -2759,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="5">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="K7" s="5">
         <v>1</v>
@@ -2768,24 +2681,24 @@
         <v>5</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" s="14">
+        <v>21001</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="O7" s="16" t="s">
-        <v>108</v>
-      </c>
       <c r="P7" s="16" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>2021</v>
+        <v>21011</v>
       </c>
       <c r="B8" s="14">
         <v>1012</v>
@@ -2812,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="5">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="K8" s="5">
         <v>1</v>
@@ -2821,24 +2734,24 @@
         <v>8</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>96</v>
+        <v>131</v>
+      </c>
+      <c r="N8" s="14">
+        <v>21011</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>142</v>
+        <v>95</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>2031</v>
+        <v>21021</v>
       </c>
       <c r="B9" s="14">
         <v>1013</v>
@@ -2865,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="5">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="K9" s="5">
         <v>1</v>
@@ -2874,24 +2787,24 @@
         <v>12</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>97</v>
+        <v>132</v>
+      </c>
+      <c r="N9" s="14">
+        <v>21021</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>137</v>
+        <v>95</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>2041</v>
+        <v>21031</v>
       </c>
       <c r="B10" s="14">
         <v>1014</v>
@@ -2918,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="5">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="K10" s="5">
         <v>1</v>
@@ -2927,19 +2840,19 @@
         <v>24</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>98</v>
+        <v>131</v>
+      </c>
+      <c r="N10" s="14">
+        <v>21031</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>137</v>
+        <v>95</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2973,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18CF833-C8E3-4FD3-833A-20A74CDB8951}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3001,13 +2914,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>31</v>
@@ -3022,7 +2935,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>46</v>
@@ -3043,13 +2956,13 @@
         <v>76</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3090,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
@@ -3168,13 +3081,13 @@
         <v>78</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
@@ -3197,17 +3110,17 @@
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="18" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>3001</v>
+        <v>12001</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="14">
         <v>3</v>
@@ -3240,27 +3153,27 @@
         <v>4</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>102</v>
+        <v>131</v>
+      </c>
+      <c r="N6" s="16">
+        <v>12001</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>3011</v>
+        <v>22001</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="14">
         <v>3</v>
@@ -3293,24 +3206,24 @@
         <v>7</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>103</v>
+        <v>131</v>
+      </c>
+      <c r="N7" s="16">
+        <v>22001</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>3021</v>
+        <v>22011</v>
       </c>
       <c r="B8" s="16">
         <v>1022</v>
@@ -3346,24 +3259,24 @@
         <v>21</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
+      </c>
+      <c r="N8" s="16">
+        <v>22011</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>138</v>
+        <v>95</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
-        <v>3031</v>
+        <v>22021</v>
       </c>
       <c r="B9" s="16">
         <v>1023</v>
@@ -3399,24 +3312,24 @@
         <v>22</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="N9" s="16">
+        <v>22021</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>138</v>
+        <v>95</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
-        <v>3041</v>
+        <v>22031</v>
       </c>
       <c r="B10" s="16">
         <v>1024</v>
@@ -3452,19 +3365,125 @@
         <v>32</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>106</v>
+        <v>131</v>
+      </c>
+      <c r="N10" s="16">
+        <v>22031</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q10" s="21" t="s">
-        <v>138</v>
+        <v>95</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>22041</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1025</v>
+      </c>
+      <c r="C11" s="14">
+        <v>3</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>49</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>32</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" s="16">
+        <v>22041</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>22051</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1026</v>
+      </c>
+      <c r="C12" s="14">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>49</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>32</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="16">
+        <v>22051</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3493,9 +3512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1034E8-97B7-4AE6-85D3-98B9692FAA0B}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3522,10 +3539,10 @@
         <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>31</v>
@@ -3540,7 +3557,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>44</v>
@@ -3564,13 +3581,13 @@
         <v>76</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -3614,19 +3631,19 @@
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
@@ -3696,13 +3713,13 @@
         <v>78</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
@@ -3726,7 +3743,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="18" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -3736,7 +3753,7 @@
         <v>4001</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="14">
         <v>4</v>
@@ -3772,13 +3789,13 @@
         <v>5</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
@@ -3788,7 +3805,7 @@
         <v>4011</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="14">
         <v>4</v>
@@ -3824,13 +3841,13 @@
         <v>122</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
@@ -3865,10 +3882,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3893,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -3918,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3990,7 +4007,7 @@
         <v>1012</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3998,7 +4015,7 @@
         <v>1013</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4006,7 +4023,7 @@
         <v>1014</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4030,7 +4047,7 @@
         <v>1022</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4038,7 +4055,7 @@
         <v>1023</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4046,63 +4063,79 @@
         <v>1024</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
-        <v>2000</v>
+        <v>1030</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
-        <v>2001</v>
+        <v>1031</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <v>2004</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>118</v>
+      <c r="B31" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4328,7 +4361,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
@@ -4348,10 +4381,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D5" s="9"/>
     </row>
@@ -4360,10 +4393,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -4372,7 +4405,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -4384,7 +4417,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -4392,10 +4425,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -4403,10 +4436,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>

--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CF3E33-6EB2-4D3F-8D32-2C11B7A406BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8002E5-640D-4B66-9FB5-5086166AD6CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="564" windowWidth="32796" windowHeight="15576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{540B4443-5480-4314-B5F8-93E016D6A4CB}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{540B4443-5480-4314-B5F8-93E016D6A4CB}">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{7B10D316-1774-4D3A-84AE-C9F5C887653E}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{7B10D316-1774-4D3A-84AE-C9F5C887653E}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{BF0E59D3-2B0A-457B-B572-B03F56F78E25}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{BF0E59D3-2B0A-457B-B572-B03F56F78E25}">
       <text>
         <r>
           <rPr>
@@ -401,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C835D520-8FA0-47E8-9094-2BBE538357B3}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{C835D520-8FA0-47E8-9094-2BBE538357B3}">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C4B0E261-EB9F-43EB-A6F8-4FB7B1B7F5D0}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{C4B0E261-EB9F-43EB-A6F8-4FB7B1B7F5D0}">
       <text>
         <r>
           <rPr>
@@ -521,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{E08E5B62-A112-411E-B3BC-764B0DCB95FA}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{E08E5B62-A112-411E-B3BC-764B0DCB95FA}">
       <text>
         <r>
           <rPr>
@@ -554,7 +554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="170">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1092,10 +1092,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>预制件名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1104,16 +1100,132 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>vector3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>预制件的坐标</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0|0.19|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>0|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>body10001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>body20001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun11001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun21001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>missile12001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun21011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun21021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun21031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>missile22001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>missile22011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>missile22021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>missile22031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>missile22041</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|-0.18|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.15|-0.5|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.17|-0.5|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.22|-0.31|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.31|-0.4|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾钳子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaneFactory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun21041</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.21|-0.37|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.31|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.31|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.43|-0.23|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.37|-0.29|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.59|0.03|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1238,7 +1350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1279,6 +1391,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1286,7 +1409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1344,12 +1467,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1975,10 +2170,10 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2050,7 +2245,7 @@
         <v>135</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>97</v>
@@ -2106,10 +2301,10 @@
         <v>91</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>91</v>
@@ -2186,10 +2381,10 @@
         <v>78</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="18" t="s">
         <v>94</v>
@@ -2270,8 +2465,12 @@
       <c r="N6" s="16">
         <v>10001</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="O6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="Q6" s="16" t="s">
         <v>95</v>
       </c>
@@ -2325,9 +2524,11 @@
       <c r="N7" s="16">
         <v>20001</v>
       </c>
-      <c r="O7" s="16"/>
+      <c r="O7" s="16" t="s">
+        <v>141</v>
+      </c>
       <c r="P7" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>95</v>
@@ -2342,16 +2543,19 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A3:A5">
-    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2 A2:I2">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+  <conditionalFormatting sqref="A2:I2">
+    <cfRule type="duplicateValues" dxfId="26" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:L2">
+    <cfRule type="duplicateValues" dxfId="25" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:Q2">
-    <cfRule type="duplicateValues" dxfId="20" priority="32"/>
+  <conditionalFormatting sqref="M2:R2">
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2361,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026B52-CF55-48DC-8D86-B26C46E34A0E}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2382,12 +2586,13 @@
     <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -2431,16 +2636,22 @@
         <v>76</v>
       </c>
       <c r="O1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2487,13 +2698,19 @@
         <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="R2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -2508,11 +2725,13 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
-      <c r="O3" s="18"/>
+      <c r="O3" s="16"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -2555,17 +2774,23 @@
       <c r="N4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="R4" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="S4" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>55</v>
       </c>
@@ -2584,13 +2809,15 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="16"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>11001</v>
       </c>
@@ -2634,16 +2861,22 @@
         <v>11001</v>
       </c>
       <c r="O6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="R6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="S6" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>21001</v>
       </c>
@@ -2687,16 +2920,22 @@
         <v>21001</v>
       </c>
       <c r="O7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="R7" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="S7" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>21011</v>
       </c>
@@ -2740,16 +2979,22 @@
         <v>21011</v>
       </c>
       <c r="O8" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="R8" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="S8" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>21021</v>
       </c>
@@ -2793,16 +3038,22 @@
         <v>21021</v>
       </c>
       <c r="O9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q9" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="R9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="S9" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>21031</v>
       </c>
@@ -2846,37 +3097,108 @@
         <v>21031</v>
       </c>
       <c r="O10" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="R10" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="Q10" s="19" t="s">
+      <c r="S10" s="19" t="s">
         <v>124</v>
       </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>21041</v>
+      </c>
+      <c r="B11" s="24">
+        <v>1015</v>
+      </c>
+      <c r="C11" s="24">
+        <v>2</v>
+      </c>
+      <c r="D11" s="24">
+        <v>3</v>
+      </c>
+      <c r="E11" s="24">
+        <v>3</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
+      <c r="J11" s="26">
+        <v>33</v>
+      </c>
+      <c r="K11" s="26">
+        <v>1</v>
+      </c>
+      <c r="L11" s="26">
+        <v>25</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="N11" s="24">
+        <v>21041</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K13" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O2">
-    <cfRule type="duplicateValues" dxfId="15" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:N2 Q2">
+    <cfRule type="duplicateValues" dxfId="18" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2">
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:P2">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2886,10 +3208,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18CF833-C8E3-4FD3-833A-20A74CDB8951}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2907,12 +3229,13 @@
     <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>92</v>
       </c>
@@ -2956,16 +3279,22 @@
         <v>76</v>
       </c>
       <c r="O1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3012,13 +3341,19 @@
         <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="R2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -3033,11 +3368,13 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
-      <c r="O3" s="18"/>
+      <c r="O3" s="16"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -3080,17 +3417,23 @@
       <c r="N4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="R4" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="S4" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>55</v>
       </c>
@@ -3109,13 +3452,15 @@
       <c r="L5" s="14"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="16"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>12001</v>
       </c>
@@ -3159,16 +3504,22 @@
         <v>12001</v>
       </c>
       <c r="O6" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="R6" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="S6" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>22001</v>
       </c>
@@ -3212,16 +3563,22 @@
         <v>22001</v>
       </c>
       <c r="O7" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q7" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="R7" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="S7" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>22011</v>
       </c>
@@ -3265,16 +3622,22 @@
         <v>22011</v>
       </c>
       <c r="O8" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="R8" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="S8" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>22021</v>
       </c>
@@ -3318,16 +3681,22 @@
         <v>22021</v>
       </c>
       <c r="O9" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q9" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="R9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="S9" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>22031</v>
       </c>
@@ -3371,16 +3740,22 @@
         <v>22031</v>
       </c>
       <c r="O10" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="R10" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="S10" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>22041</v>
       </c>
@@ -3424,84 +3799,40 @@
         <v>22041</v>
       </c>
       <c r="O11" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q11" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="R11" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="Q11" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>22051</v>
-      </c>
-      <c r="B12" s="16">
-        <v>1026</v>
-      </c>
-      <c r="C12" s="14">
-        <v>3</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
-        <v>12</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>49</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
-        <v>32</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="N12" s="16">
-        <v>22051</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q12" s="20" t="s">
+      <c r="S11" s="20" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A3:A5">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O2">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+  <conditionalFormatting sqref="M2:N2 Q2">
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  <conditionalFormatting sqref="S2">
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L2">
-    <cfRule type="duplicateValues" dxfId="8" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:P2">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3510,9 +3841,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1034E8-97B7-4AE6-85D3-98B9692FAA0B}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3529,12 +3862,13 @@
     <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -3581,16 +3915,22 @@
         <v>76</v>
       </c>
       <c r="P1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3640,13 +3980,19 @@
         <v>91</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -3662,11 +4008,13 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="18"/>
+      <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="R3" s="18"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -3712,17 +4060,23 @@
       <c r="O4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="R4" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="S4" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="T4" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>55</v>
       </c>
@@ -3742,13 +4096,15 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4001</v>
       </c>
@@ -3794,13 +4150,17 @@
       <c r="O6" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="R6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4011</v>
       </c>
@@ -3846,33 +4206,40 @@
       <c r="O7" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="R7" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A3:A5">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:M2">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:P2">
+  <conditionalFormatting sqref="N2:O2 R2">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
+  <conditionalFormatting sqref="T2">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
+  <conditionalFormatting sqref="P2:Q2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3882,10 +4249,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4028,113 +4395,121 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <v>2000</v>
+        <v>1031</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>2004</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4331,7 +4706,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8002E5-640D-4B66-9FB5-5086166AD6CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D1861-F435-4C0D-9E63-6675191EE204}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1391,17 +1391,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1409,7 +1398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1467,28 +1456,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2169,7 +2155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2565,10 +2551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026B52-CF55-48DC-8D86-B26C46E34A0E}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2810,7 +2796,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="18" t="s">
         <v>96</v>
       </c>
@@ -2981,7 +2967,7 @@
       <c r="O8" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" s="22" t="s">
         <v>155</v>
       </c>
       <c r="Q8" s="16" t="s">
@@ -3040,7 +3026,7 @@
       <c r="O9" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="21" t="s">
         <v>156</v>
       </c>
       <c r="Q9" s="16" t="s">
@@ -3099,7 +3085,7 @@
       <c r="O10" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="21" t="s">
         <v>157</v>
       </c>
       <c r="Q10" s="16" t="s">
@@ -3113,55 +3099,55 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>21041</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>1015</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>2</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>3</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>3</v>
       </c>
-      <c r="F11" s="25">
-        <v>0</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
-      <c r="H11" s="25">
-        <v>0</v>
-      </c>
-      <c r="I11" s="26">
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
         <v>1</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>33</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>1</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="25">
         <v>25</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="23">
         <v>21041</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="P11" s="28" t="s">
+      <c r="P11" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="26" t="s">
         <v>163</v>
       </c>
       <c r="R11" s="19" t="s">
@@ -3170,9 +3156,6 @@
       <c r="S11" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K13" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3506,7 +3489,7 @@
       <c r="O6" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="21" t="s">
         <v>164</v>
       </c>
       <c r="Q6" s="16" t="s">
@@ -3565,7 +3548,7 @@
       <c r="O7" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="21" t="s">
         <v>165</v>
       </c>
       <c r="Q7" s="16" t="s">
@@ -3624,7 +3607,7 @@
       <c r="O8" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P8" s="21" t="s">
         <v>158</v>
       </c>
       <c r="Q8" s="16" t="s">
@@ -3683,7 +3666,7 @@
       <c r="O9" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="21" t="s">
         <v>166</v>
       </c>
       <c r="Q9" s="16" t="s">
@@ -3742,7 +3725,7 @@
       <c r="O10" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="21" t="s">
         <v>167</v>
       </c>
       <c r="Q10" s="16" t="s">
@@ -3801,7 +3784,7 @@
       <c r="O11" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P11" s="21" t="s">
         <v>168</v>
       </c>
       <c r="Q11" s="16" t="s">

--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D1861-F435-4C0D-9E63-6675191EE204}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA6EDFF-A916-49B4-A776-0A12F69961D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="LanguageSetting" sheetId="3" r:id="rId5"/>
     <sheet name="GameSetting" sheetId="2" r:id="rId6"/>
     <sheet name="IconSetting" sheetId="9" r:id="rId7"/>
+    <sheet name="GermSetting" sheetId="10" r:id="rId8"/>
+    <sheet name="说明" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -553,8 +555,45 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FB01834C-4712-4D78-9FCE-8ECFCA6B9C0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：为血量暴多细菌
+2：为分裂细菌
+100及之后为非细菌生成器产生的细菌
+100：为分裂细菌分裂后产生的细菌</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="192">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1046,20 +1085,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BulletNormal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletBasicTrace</t>
-  </si>
-  <si>
-    <t>BulletMissile</t>
-  </si>
-  <si>
-    <t>BulletMissile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bulletLightBlue</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1226,6 +1251,108 @@
   <si>
     <t>Vector3</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量值不足{0}点，无法开始游戏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有解锁的尾翼部件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有解锁的导弹部件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有解锁的副武器部件</t>
+  </si>
+  <si>
+    <t>没有解锁的机身部件</t>
+  </si>
+  <si>
+    <t>未解锁，请通关关卡{0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>细菌名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟具体细菌的类名字一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制体名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guaiwu1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guaiwu2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radius</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>细菌半径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>细菌id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID唯一标识细菌类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletNormal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletNormal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletBasicTrace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletDirectionTrace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletMissile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletMissile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.GermBoom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.GermBounce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletNormal2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1235,7 +1362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1335,6 +1462,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1350,7 +1490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1391,6 +1531,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1398,7 +1562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1477,12 +1641,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2153,13 +2380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2179,8 +2406,8 @@
     <col min="14" max="14" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="19.88671875" style="4" customWidth="1"/>
     <col min="17" max="17" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29" style="4" customWidth="1"/>
-    <col min="19" max="19" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2228,10 +2455,10 @@
         <v>76</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>97</v>
@@ -2290,7 +2517,7 @@
         <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>91</v>
@@ -2302,186 +2529,148 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+    <row r="3" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>122</v>
-      </c>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="Q5" s="18" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="Q6" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
-        <v>10001</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
-        <v>1</v>
-      </c>
-      <c r="J6" s="16">
-        <v>99</v>
-      </c>
-      <c r="K6" s="16">
-        <v>1</v>
-      </c>
-      <c r="L6" s="16">
-        <v>0</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="N6" s="16">
-        <v>10001</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>123</v>
-      </c>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
       </c>
       <c r="D7" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="16">
         <v>0</v>
@@ -2502,46 +2691,105 @@
         <v>1</v>
       </c>
       <c r="L7" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N7" s="16">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>95</v>
       </c>
       <c r="R7" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="16">
+        <v>20001</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1</v>
+      </c>
+      <c r="J8" s="16">
+        <v>99</v>
+      </c>
+      <c r="K8" s="16">
+        <v>1</v>
+      </c>
+      <c r="L8" s="16">
+        <v>2</v>
+      </c>
+      <c r="M8" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="16" t="s">
-        <v>123</v>
+      <c r="N8" s="16">
+        <v>20001</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A5">
-    <cfRule type="duplicateValues" dxfId="27" priority="31"/>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I2">
-    <cfRule type="duplicateValues" dxfId="26" priority="11"/>
+  <conditionalFormatting sqref="A2:I3">
+    <cfRule type="duplicateValues" dxfId="30" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:L2">
-    <cfRule type="duplicateValues" dxfId="25" priority="37"/>
+  <conditionalFormatting sqref="J2:L3">
+    <cfRule type="duplicateValues" dxfId="29" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
-    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
+  <conditionalFormatting sqref="S2:S3">
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:R2">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+  <conditionalFormatting sqref="M2:R3">
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2551,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026B52-CF55-48DC-8D86-B26C46E34A0E}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2575,7 +2823,7 @@
     <col min="15" max="16" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -2622,10 +2870,10 @@
         <v>76</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>97</v>
@@ -2684,7 +2932,7 @@
         <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>91</v>
@@ -2696,187 +2944,149 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" s="18" t="s">
+      <c r="O5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S5" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>11001</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1010</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>33</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5">
-        <v>3</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="N6" s="14">
-        <v>11001</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>124</v>
-      </c>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>21001</v>
+        <v>11001</v>
       </c>
       <c r="B7" s="8">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="12">
         <v>0</v>
@@ -2897,45 +3107,45 @@
         <v>1</v>
       </c>
       <c r="L7" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N7" s="14">
-        <v>21001</v>
+        <v>11001</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>95</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>21011</v>
-      </c>
-      <c r="B8" s="14">
-        <v>1012</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="A8" s="5">
+        <v>21001</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1011</v>
+      </c>
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1.3</v>
+      <c r="D8" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.2</v>
       </c>
       <c r="F8" s="12">
         <v>0</v>
@@ -2956,45 +3166,45 @@
         <v>1</v>
       </c>
       <c r="L8" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N8" s="14">
-        <v>21011</v>
+        <v>21001</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>155</v>
+        <v>139</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="19" t="s">
-        <v>129</v>
+      <c r="R8" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>21021</v>
+        <v>21011</v>
       </c>
       <c r="B9" s="14">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C9" s="14">
         <v>2</v>
       </c>
       <c r="D9" s="14">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E9" s="14">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F9" s="12">
         <v>0</v>
@@ -3015,45 +3225,45 @@
         <v>1</v>
       </c>
       <c r="L9" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N9" s="14">
-        <v>21021</v>
+        <v>21011</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>156</v>
+        <v>142</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>95</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>21031</v>
+        <v>21021</v>
       </c>
       <c r="B10" s="14">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C10" s="14">
         <v>2</v>
       </c>
       <c r="D10" s="14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F10" s="12">
         <v>0</v>
@@ -3074,114 +3284,173 @@
         <v>1</v>
       </c>
       <c r="L10" s="5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N10" s="14">
-        <v>21031</v>
+        <v>21021</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>95</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="14">
+        <v>21031</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1014</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>33</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>24</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" s="14">
+        <v>21031</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <v>21041</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B12" s="23">
         <v>1015</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C12" s="23">
         <v>2</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D12" s="23">
         <v>3</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E12" s="23">
         <v>3</v>
       </c>
-      <c r="F11" s="24">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="25">
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
         <v>1</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J12" s="25">
         <v>33</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K12" s="25">
         <v>1</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L12" s="25">
         <v>25</v>
       </c>
-      <c r="M11" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="M12" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" s="23">
         <v>21041</v>
       </c>
-      <c r="O11" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="S11" s="19" t="s">
-        <v>124</v>
+      <c r="O12" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
+  <conditionalFormatting sqref="A2:A6">
+    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:N2 Q2">
-    <cfRule type="duplicateValues" dxfId="18" priority="30"/>
+  <conditionalFormatting sqref="A2:N3 Q2:Q3">
+    <cfRule type="duplicateValues" dxfId="22" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+  <conditionalFormatting sqref="S2:S3">
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P2">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+  <conditionalFormatting sqref="O2:P3">
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3191,10 +3460,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18CF833-C8E3-4FD3-833A-20A74CDB8951}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3215,7 +3484,7 @@
     <col min="15" max="16" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -3262,10 +3531,10 @@
         <v>76</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>97</v>
@@ -3324,7 +3593,7 @@
         <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>91</v>
@@ -3336,187 +3605,149 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" s="18" t="s">
+      <c r="O5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S5" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="18" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>12001</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="14">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>49</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5">
-        <v>4</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="N6" s="16">
-        <v>12001</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>126</v>
-      </c>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>22001</v>
+        <v>12001</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="14">
         <v>3</v>
       </c>
       <c r="D7" s="12">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E7" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="12">
         <v>0</v>
@@ -3537,45 +3768,45 @@
         <v>1</v>
       </c>
       <c r="L7" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N7" s="16">
-        <v>22001</v>
+        <v>12001</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>95</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>22011</v>
-      </c>
-      <c r="B8" s="16">
-        <v>1022</v>
-      </c>
-      <c r="C8" s="16">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>22001</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="14">
         <v>3</v>
       </c>
-      <c r="D8" s="16">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16">
-        <v>7</v>
+      <c r="D8" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8" s="12">
+        <v>5</v>
       </c>
       <c r="F8" s="12">
         <v>0</v>
@@ -3596,45 +3827,45 @@
         <v>1</v>
       </c>
       <c r="L8" s="5">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N8" s="16">
-        <v>22011</v>
+        <v>22001</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="R8" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
-        <v>22021</v>
+        <v>22011</v>
       </c>
       <c r="B9" s="16">
-        <v>1023</v>
-      </c>
-      <c r="C9" s="14">
+        <v>1022</v>
+      </c>
+      <c r="C9" s="16">
         <v>3</v>
       </c>
       <c r="D9" s="16">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="12">
         <v>0</v>
@@ -3655,45 +3886,45 @@
         <v>1</v>
       </c>
       <c r="L9" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N9" s="16">
-        <v>22021</v>
+        <v>22011</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>95</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
-        <v>22031</v>
+        <v>22021</v>
       </c>
       <c r="B10" s="16">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C10" s="14">
         <v>3</v>
       </c>
       <c r="D10" s="16">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E10" s="16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10" s="12">
         <v>0</v>
@@ -3714,36 +3945,36 @@
         <v>1</v>
       </c>
       <c r="L10" s="5">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N10" s="16">
-        <v>22031</v>
+        <v>22021</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>95</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S10" s="20" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
-        <v>22041</v>
+        <v>22031</v>
       </c>
       <c r="B11" s="16">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C11" s="14">
         <v>3</v>
@@ -3776,46 +4007,105 @@
         <v>32</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N11" s="16">
-        <v>22041</v>
+        <v>22031</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>95</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>125</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>22041</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1025</v>
+      </c>
+      <c r="C12" s="14">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>49</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>32</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" s="16">
+        <v>22041</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A5">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2 Q2">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+  <conditionalFormatting sqref="M2:N3 Q2:Q3">
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  <conditionalFormatting sqref="S2:S3">
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L2">
-    <cfRule type="duplicateValues" dxfId="10" priority="31"/>
+  <conditionalFormatting sqref="A2:L3">
+    <cfRule type="duplicateValues" dxfId="14" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  <conditionalFormatting sqref="O2:P3">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3824,10 +4114,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1034E8-97B7-4AE6-85D3-98B9692FAA0B}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3898,10 +4188,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R1" s="17" t="s">
         <v>97</v>
@@ -3963,7 +4253,7 @@
         <v>91</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>91</v>
@@ -3975,180 +4265,146 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4" s="18" t="s">
+      <c r="P5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T5" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="18" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>4001</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="14">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <v>199</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
-        <v>5</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>4011</v>
+        <v>4001</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="14">
         <v>4</v>
@@ -4181,49 +4437,105 @@
         <v>1</v>
       </c>
       <c r="M7" s="5">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4011</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>199</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>122</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A5">
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M2">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="A2:M3">
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O2 R2">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="N2:O3 R2:R3">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  <conditionalFormatting sqref="S2:S3">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="T2:T3">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:Q2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="P2:Q3">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4232,10 +4544,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4265,241 +4577,294 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>102</v>
-      </c>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
-        <v>1010</v>
+        <v>105</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <v>2000</v>
+        <v>1031</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>2004</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>3000</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>3001</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>3002</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>3003</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>3004</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>3005</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A2:C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A2:C3">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4508,10 +4873,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4548,129 +4913,132 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>9999</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>9999</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>9999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4686,10 +5054,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16613BD9-1BB8-4B3A-9C31-59A58E5C044A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4726,80 +5094,83 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>111</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4811,4 +5182,181 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8232EF6F-E003-41C5-BAF0-3BEF584E0537}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.74</v>
+      </c>
+      <c r="E8" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>100</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B4:B6 B9">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E3">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F377421E-B907-459B-97D2-7B00629910A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA6EDFF-A916-49B4-A776-0A12F69961D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C26FC8D-68E6-443F-BACE-43AD0D5444FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="196">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1353,6 +1353,22 @@
   <si>
     <t>ZGame.Logic.BulletNormal2</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nil</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2801,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026B52-CF55-48DC-8D86-B26C46E34A0E}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2945,25 +2961,63 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -3449,7 +3503,7 @@
   <conditionalFormatting sqref="S2:S3">
     <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P3">
+  <conditionalFormatting sqref="O2:P2 O3">
     <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3462,8 +3516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18CF833-C8E3-4FD3-833A-20A74CDB8951}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3606,25 +3660,63 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -4116,8 +4208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1034E8-97B7-4AE6-85D3-98B9692FAA0B}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4266,26 +4358,66 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -4534,7 +4666,7 @@
   <conditionalFormatting sqref="T2:T3">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:Q3">
+  <conditionalFormatting sqref="P2:Q2 P3">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4547,7 +4679,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4577,8 +4709,12 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="32">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>195</v>
+      </c>
       <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4876,7 +5012,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4913,6 +5049,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,7 +5199,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5094,6 +5236,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5188,8 +5336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8232EF6F-E003-41C5-BAF0-3BEF584E0537}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5235,11 +5383,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="30"/>
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>

--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C26FC8D-68E6-443F-BACE-43AD0D5444FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2655B668-B88E-4268-94B4-83CB560CD95E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="197">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1355,20 +1355,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>0|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>nil</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0|0|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nil</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nil</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>null</t>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2399,10 +2402,10 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2546,25 +2549,63 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
@@ -2804,7 +2845,7 @@
   <conditionalFormatting sqref="S2:S3">
     <cfRule type="duplicateValues" dxfId="28" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:R3">
+  <conditionalFormatting sqref="M2:R2 M3:O3 Q3:R3">
     <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2817,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026B52-CF55-48DC-8D86-B26C46E34A0E}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2998,25 +3039,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>135</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
@@ -3517,7 +3558,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3697,25 +3738,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
@@ -4404,7 +4445,7 @@
         <v>194</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>135</v>
@@ -4713,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="32"/>
     </row>
@@ -5012,7 +5053,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5050,7 +5091,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5199,7 +5240,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5337,7 +5378,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2655B668-B88E-4268-94B4-83CB560CD95E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A73D5B9-049D-4DC8-B5BF-4C6833D672A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <sheet name="GameSetting" sheetId="2" r:id="rId6"/>
     <sheet name="IconSetting" sheetId="9" r:id="rId7"/>
     <sheet name="GermSetting" sheetId="10" r:id="rId8"/>
-    <sheet name="说明" sheetId="11" r:id="rId9"/>
+    <sheet name="Test" sheetId="12" r:id="rId9"/>
+    <sheet name="说明Describle" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -593,7 +594,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="217">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1359,10 +1360,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>nil</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -1371,6 +1368,89 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupportType:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field annotation:</t>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1495,7 +1575,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1506,6 +1586,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1581,7 +1673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1675,12 +1767,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2586,25 +2764,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>135</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -2834,23 +3012,92 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:I3">
-    <cfRule type="duplicateValues" dxfId="30" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:L3">
-    <cfRule type="duplicateValues" dxfId="29" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S3">
-    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:R2 M3:O3 Q3:R3">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F377421E-B907-459B-97D2-7B00629910A7}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" style="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3039,25 +3286,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>135</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
@@ -3524,28 +3771,28 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:N3 Q2:Q3">
-    <cfRule type="duplicateValues" dxfId="22" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R3">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S3">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:P2 O3">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3738,25 +3985,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>192</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
@@ -4223,22 +4470,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:N3 Q2:Q3">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R3">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S3">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L3">
-    <cfRule type="duplicateValues" dxfId="14" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:P3">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4250,7 +4497,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4439,25 +4686,25 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>135</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
@@ -4687,28 +4934,28 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:M3">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:O3 R2:R3">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S3">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T3">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:Q2 P3">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4754,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="32"/>
     </row>
@@ -5041,7 +5288,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:C3">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5091,7 +5338,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5278,10 +5525,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" s="10"/>
     </row>
@@ -5377,8 +5624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8232EF6F-E003-41C5-BAF0-3BEF584E0537}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5428,10 +5675,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -5529,16 +5776,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B4:B6 B9">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E3">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="39"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5547,15 +5794,188 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F377421E-B907-459B-97D2-7B00629910A7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CFF3D8-2A70-4590-A4A3-4A4431F09686}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>100</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B4:B6 B9">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E3">
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A73D5B9-049D-4DC8-B5BF-4C6833D672A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24270DD-55CC-4ABF-AA33-5D5DC11BD1DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1476" yWindow="1920" windowWidth="21348" windowHeight="12708" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,9 @@
     <sheet name="GameSetting" sheetId="2" r:id="rId6"/>
     <sheet name="IconSetting" sheetId="9" r:id="rId7"/>
     <sheet name="GermSetting" sheetId="10" r:id="rId8"/>
-    <sheet name="Test" sheetId="12" r:id="rId9"/>
-    <sheet name="说明Describle" sheetId="11" r:id="rId10"/>
+    <sheet name="BulletSetting" sheetId="13" r:id="rId9"/>
+    <sheet name="Test" sheetId="12" r:id="rId10"/>
+    <sheet name="说明Describle" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -594,7 +595,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="237">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1086,13 +1087,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bulletLightBlue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletRed</t>
-  </si>
-  <si>
     <t>bulletSmallBrown</t>
   </si>
   <si>
@@ -1336,14 +1330,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ZGame.Logic.BulletMissile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZGame.Logic.BulletMissile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ZGame.Logic.GermBoom</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1410,47 +1396,142 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>XX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletRestrictDis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和类名唯一对应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitType为范围伤时有效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletForce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletMissile1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletMissile1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletBianZhi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletBianZhiPro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletBianZhiPro</t>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletBianZhi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0点伤，1范围伤，2持续伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoDestroyType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动销毁类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0出界，1到达一定时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifeTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹生命时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当AutoDestroyType为1时有效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹移动速度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1458,10 +1539,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1504,13 +1582,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="0"/>
@@ -1520,13 +1591,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -1673,30 +1737,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1705,63 +1760,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1774,343 +1799,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2580,452 +2269,438 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="19.88671875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.88671875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="39.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>10001</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>99</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" s="10">
+        <v>10001</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>20001</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>99</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="10">
+        <v>20001</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="Q6" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
-        <v>10001</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
-        <v>5</v>
-      </c>
-      <c r="E7" s="16">
-        <v>3</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>1</v>
-      </c>
-      <c r="J7" s="16">
-        <v>99</v>
-      </c>
-      <c r="K7" s="16">
-        <v>1</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="N7" s="16">
-        <v>10001</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q7" s="16" t="s">
+      <c r="P8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
-        <v>20001</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>1</v>
-      </c>
-      <c r="J8" s="16">
-        <v>99</v>
-      </c>
-      <c r="K8" s="16">
-        <v>1</v>
-      </c>
-      <c r="L8" s="16">
-        <v>2</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="N8" s="16">
-        <v>20001</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>191</v>
+      <c r="R8" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="38" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I3">
-    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:L3">
-    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S3">
-    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:R2 M3:O3 Q3:R3">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3033,65 +2708,237 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CFF3D8-2A70-4590-A4A3-4A4431F09686}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>100</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A2:B2">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E2">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F377421E-B907-459B-97D2-7B00629910A7}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="34" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3105,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026B52-CF55-48DC-8D86-B26C46E34A0E}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3131,668 +2978,650 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="Q3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="P5" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>11001</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>1010</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="10">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
         <v>1</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="10">
         <v>33</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="10">
         <v>1</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="10">
         <v>3</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="N7" s="14">
+      <c r="M7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="10">
         <v>11001</v>
       </c>
-      <c r="O7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q7" s="16" t="s">
+      <c r="O7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>21001</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1011</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>33</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10">
+        <v>5</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="N8" s="10">
+        <v>21001</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>21001</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1011</v>
-      </c>
-      <c r="C8" s="5">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>21011</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1012</v>
+      </c>
+      <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="D9" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J9" s="10">
         <v>33</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K9" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="5">
-        <v>5</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="N8" s="14">
-        <v>21001</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="P8" s="16" t="s">
+      <c r="L9" s="10">
+        <v>8</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="10">
+        <v>21011</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>21021</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1013</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
+        <v>33</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10">
+        <v>12</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="10">
+        <v>21021</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q10" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>21031</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1014</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10">
+        <v>33</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
+        <v>24</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="S8" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>21011</v>
-      </c>
-      <c r="B9" s="14">
-        <v>1012</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="N11" s="10">
+        <v>21031</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>21041</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1015</v>
+      </c>
+      <c r="C12" s="10">
         <v>2</v>
       </c>
-      <c r="D9" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J12" s="10">
         <v>33</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K12" s="10">
         <v>1</v>
       </c>
-      <c r="L9" s="5">
-        <v>8</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="14">
-        <v>21011</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>21021</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1013</v>
-      </c>
-      <c r="C10" s="14">
-        <v>2</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>33</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
-        <v>12</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="N10" s="14">
-        <v>21021</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="S10" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>21031</v>
-      </c>
-      <c r="B11" s="14">
-        <v>1014</v>
-      </c>
-      <c r="C11" s="14">
-        <v>2</v>
-      </c>
-      <c r="D11" s="14">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>33</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
-        <v>24</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="N11" s="14">
-        <v>21031</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="S11" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="L12" s="10">
+        <v>25</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N12" s="10">
         <v>21041</v>
       </c>
-      <c r="B12" s="23">
-        <v>1015</v>
-      </c>
-      <c r="C12" s="23">
-        <v>2</v>
-      </c>
-      <c r="D12" s="23">
-        <v>3</v>
-      </c>
-      <c r="E12" s="23">
-        <v>3</v>
-      </c>
-      <c r="F12" s="24">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25">
-        <v>1</v>
-      </c>
-      <c r="J12" s="25">
-        <v>33</v>
-      </c>
-      <c r="K12" s="25">
-        <v>1</v>
-      </c>
-      <c r="L12" s="25">
-        <v>25</v>
-      </c>
-      <c r="M12" s="23" t="s">
+      <c r="O12" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P12" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="N12" s="23">
-        <v>21041</v>
-      </c>
-      <c r="O12" s="26" t="s">
+      <c r="Q12" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="P12" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="S12" s="19" t="s">
-        <v>185</v>
+      <c r="R12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:N3 Q2:Q3">
-    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S3">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P2 O3">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3804,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18CF833-C8E3-4FD3-833A-20A74CDB8951}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3826,669 +3655,652 @@
     <col min="15" max="16" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="I2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="P5" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="18" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>12001</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>3</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="J7" s="10">
+        <v>49</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
         <v>4</v>
       </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="M7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="10">
+        <v>12001</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>22001</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
         <v>1</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J8" s="10">
         <v>49</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="L7" s="5">
-        <v>4</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="N7" s="16">
-        <v>12001</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="P7" s="21" t="s">
+      <c r="L8" s="10">
+        <v>7</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" s="10">
+        <v>22001</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>22011</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1022</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10">
+        <v>49</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10">
+        <v>21</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="10">
+        <v>22011</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>22021</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1023</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
+        <v>49</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10">
+        <v>22</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N10" s="10">
+        <v>22021</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="P10" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q10" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>22001</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="R10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>22031</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1024</v>
+      </c>
+      <c r="C11" s="10">
         <v>3</v>
       </c>
-      <c r="D8" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E8" s="12">
-        <v>5</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="D11" s="10">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
+      <c r="E11" s="10">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10">
         <v>49</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="5">
-        <v>7</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="N8" s="16">
-        <v>22001</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="P8" s="21" t="s">
+      <c r="L11" s="10">
+        <v>32</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" s="10">
+        <v>22031</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="P11" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q11" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>22011</v>
-      </c>
-      <c r="B9" s="16">
-        <v>1022</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="R11" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>22041</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1025</v>
+      </c>
+      <c r="C12" s="10">
         <v>3</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="16">
-        <v>7</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="E12" s="10">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J12" s="10">
         <v>49</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K12" s="10">
         <v>1</v>
       </c>
-      <c r="L9" s="5">
-        <v>21</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="16">
-        <v>22011</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q9" s="16" t="s">
+      <c r="L12" s="10">
+        <v>32</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="10">
+        <v>22041</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q12" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="R9" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>22021</v>
-      </c>
-      <c r="B10" s="16">
-        <v>1023</v>
-      </c>
-      <c r="C10" s="14">
-        <v>3</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="E10" s="16">
-        <v>9</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>49</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
-        <v>22</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="N10" s="16">
-        <v>22021</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="S10" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>22031</v>
-      </c>
-      <c r="B11" s="16">
-        <v>1024</v>
-      </c>
-      <c r="C11" s="14">
-        <v>3</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
-        <v>12</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>49</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
-        <v>32</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="N11" s="16">
-        <v>22031</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>22041</v>
-      </c>
-      <c r="B12" s="16">
-        <v>1025</v>
-      </c>
-      <c r="C12" s="14">
-        <v>3</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
-        <v>12</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>49</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
-        <v>32</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="N12" s="16">
-        <v>22041</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>188</v>
+      <c r="R12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="25" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N3 Q2:Q3">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S3">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L3">
-    <cfRule type="duplicateValues" dxfId="21" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P3">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4496,8 +4308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1034E8-97B7-4AE6-85D3-98B9692FAA0B}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4522,440 +4334,422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="R3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="Q5" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="18" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>4001</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>4</v>
       </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
         <v>0.8</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>0.8</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="10">
         <v>1</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="10">
         <v>1</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="10">
         <v>199</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="10">
         <v>1</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="10">
         <v>5</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="R7" s="16" t="s">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>4011</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>4</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
         <v>0.8</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>0.8</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="10">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="10">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="10">
         <v>199</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="10">
         <v>1</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="10">
         <v>122</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="R8" s="16" t="s">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M3">
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O3 R2:R3">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S3">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T3">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:Q2 P3">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4977,13 +4771,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4997,298 +4791,298 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
-        <v>0</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="32"/>
+      <c r="A3" s="19">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="9">
         <v>100</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>101</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <v>102</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>103</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="9">
         <v>104</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>105</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <v>1010</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>1011</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="9">
         <v>1012</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>1013</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="9">
         <v>1014</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>1015</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>155</v>
+      <c r="B19" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="9">
         <v>1020</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>1021</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="9">
         <v>1022</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>1023</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="9">
         <v>1024</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="9">
         <v>1025</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>129</v>
+      <c r="B25" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="9">
         <v>1026</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>130</v>
+      <c r="B26" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="9">
         <v>1030</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="9">
         <v>1031</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="9">
         <v>2000</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="A30" s="9">
         <v>2001</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="9">
         <v>2002</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="A32" s="9">
         <v>2003</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+      <c r="A33" s="9">
         <v>2004</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="A34" s="9">
         <v>3000</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>3001</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>3002</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>3001</v>
-      </c>
-      <c r="B35" s="13" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>3003</v>
+      </c>
+      <c r="B37" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>3002</v>
-      </c>
-      <c r="B36" s="13" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>3004</v>
+      </c>
+      <c r="B38" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>3003</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>3005</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>3004</v>
-      </c>
-      <c r="B38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>3005</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:C3">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5312,16 +5106,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5332,33 +5126,33 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="9"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="9"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5370,7 +5164,7 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -5382,7 +5176,7 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -5499,16 +5293,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5519,30 +5313,30 @@
       <c r="B2" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="9"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5551,7 +5345,7 @@
       <c r="B6" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5563,7 +5357,7 @@
       <c r="C7" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -5575,7 +5369,7 @@
       <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -5625,7 +5419,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5637,156 +5431,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="30" t="s">
+      <c r="B5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B7" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>1</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="D8" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="16">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>100</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="10">
         <v>0.74</v>
       </c>
-      <c r="E8" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>100</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0.74</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="E9" s="10">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B6 B9">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E3">
-    <cfRule type="duplicateValues" dxfId="7" priority="39"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5794,188 +5576,295 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CFF3D8-2A70-4590-A4A3-4A4431F09686}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B249AD-CC02-4CA9-8D85-7492A456795D}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B7" s="10">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="10">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="B9" s="10">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="D9" s="10">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="10">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>100</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>135</v>
-      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="13">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B6 B9">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  <conditionalFormatting sqref="C4:C6">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  <conditionalFormatting sqref="A4:B6">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="A2:B2">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E3">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C2:D2">
+    <cfRule type="duplicateValues" dxfId="2" priority="43"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24270DD-55CC-4ABF-AA33-5D5DC11BD1DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58BDDFD-5B96-4C02-88FB-22C8E54DC11E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1476" yWindow="1920" windowWidth="21348" windowHeight="12708" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12" yWindow="948" windowWidth="24840" windowHeight="12708" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -2272,7 +2272,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3633,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18CF833-C8E3-4FD3-833A-20A74CDB8951}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4308,7 +4308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1034E8-97B7-4AE6-85D3-98B9692FAA0B}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -5094,7 +5094,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5579,7 +5579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B249AD-CC02-4CA9-8D85-7492A456795D}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据_程序用.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58BDDFD-5B96-4C02-88FB-22C8E54DC11E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E31BF8F-A8E3-4FAF-9BD9-9EEE58F6F948}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="948" windowWidth="24840" windowHeight="12708" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1608" windowWidth="30408" windowHeight="12708" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,8 @@
     <sheet name="TrailSetting" sheetId="7" r:id="rId4"/>
     <sheet name="LanguageSetting" sheetId="3" r:id="rId5"/>
     <sheet name="GameSetting" sheetId="2" r:id="rId6"/>
-    <sheet name="IconSetting" sheetId="9" r:id="rId7"/>
-    <sheet name="GermSetting" sheetId="10" r:id="rId8"/>
+    <sheet name="GermSetting" sheetId="10" r:id="rId7"/>
+    <sheet name="IconSetting" sheetId="9" r:id="rId8"/>
     <sheet name="BulletSetting" sheetId="13" r:id="rId9"/>
     <sheet name="Test" sheetId="12" r:id="rId10"/>
     <sheet name="说明Describle" sheetId="11" r:id="rId11"/>
@@ -595,7 +595,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="256">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1532,6 +1532,81 @@
   </si>
   <si>
     <t>子弹移动速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaneHeadRadius</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机机头半径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ylength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹在Y方向上长度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于鞭子子弹，其会生成从发射点到终点的鞭子，该值限定鞭子的Y方向总长度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HarmInterval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害时间间隔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已满级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BianZhiParams</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞭子子弹参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于HitType为2的子弹有效，每隔设定的时间计算一次伤害</t>
+  </si>
+  <si>
+    <t>8|60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]为一个鞭子最多串联的细菌数，该值要大于等于1；    [1]为鞭子搜索细菌限定夹角$该夹角为发射点的up方向和细菌之间的角度，范围(0,90]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|60</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1737,7 +1812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1794,6 +1869,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2272,7 +2353,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2651,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="10">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -3633,7 +3714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18CF833-C8E3-4FD3-833A-20A74CDB8951}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -4758,10 +4839,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5077,6 +5158,14 @@
       </c>
       <c r="B39" s="9" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>3006</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5091,10 +5180,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5124,7 +5213,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
@@ -5264,6 +5353,17 @@
       </c>
       <c r="C16" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17">
+        <v>0.27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5277,6 +5377,167 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8232EF6F-E003-41C5-BAF0-3BEF584E0537}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>100</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16613BD9-1BB8-4B3A-9C31-59A58E5C044A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -5414,173 +5675,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8232EF6F-E003-41C5-BAF0-3BEF584E0537}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>100</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="E9" s="10">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B249AD-CC02-4CA9-8D85-7492A456795D}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5591,9 +5691,12 @@
     <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>93</v>
       </c>
@@ -5612,8 +5715,17 @@
       <c r="F1" s="11" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -5626,14 +5738,23 @@
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>190</v>
       </c>
@@ -5652,16 +5773,28 @@
       <c r="F3" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>210</v>
       </c>
@@ -5677,11 +5810,20 @@
       <c r="E5" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>211</v>
       </c>
@@ -5698,8 +5840,17 @@
       <c r="F6" s="12" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>181</v>
       </c>
@@ -5712,12 +5863,23 @@
       <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>187</v>
       </c>
@@ -5730,12 +5892,23 @@
       <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>209</v>
       </c>
@@ -5748,12 +5921,23 @@
       <c r="D9" s="10">
         <v>3</v>
       </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>183</v>
       </c>
@@ -5766,12 +5950,23 @@
       <c r="D10" s="14">
         <v>0</v>
       </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>184</v>
       </c>
@@ -5784,12 +5979,23 @@
       <c r="D11" s="14">
         <v>0</v>
       </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>217</v>
       </c>
@@ -5802,12 +6008,23 @@
       <c r="D12" s="14">
         <v>0</v>
       </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>223</v>
       </c>
@@ -5824,15 +6041,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G13" s="14">
+        <v>5</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>222</v>
       </c>
       <c r="B14" s="13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -5844,10 +6070,19 @@
         <v>1</v>
       </c>
       <c r="F14" s="14">
+        <v>9</v>
+      </c>
+      <c r="G14" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="9"/>
     </row>
   </sheetData>
